--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/BRImunobiológicoxGPS_GPSxBRImunobiológico/BRImunobiológicoxGPS_GPSxBRImunobiológico.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/BRImunobiológicoxGPS_GPSxBRImunobiológico/BRImunobiológicoxGPS_GPSxBRImunobiológico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\GitHub\HSL-IPS\Entregaveis\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\BRImunobiológicoxGPS_GPSxBRImunobiológico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -161,16 +161,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -485,52 +485,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
